--- a/results/I3_N5_M2_T45_C100_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1573.488404737745</v>
+        <v>2278.104537925762</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.61300432614031</v>
+        <v>14.28179703790106</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213756</v>
+        <v>4.283234758917612</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1447.120000000007</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.06</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.76867181806009</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.43350262360388</v>
+        <v>39.47131137385256</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.99312545677591</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>40.76506560089879</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.82130316684417</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.22520378290002</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1213,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1227,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1241,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1255,12 +1200,82 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.83500000000059</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>74.45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.68000000000059</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>74.10500000000057</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>80.46000000000058</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>196.1</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0650000000012</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>192.3650000000012</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>190.9800000000012</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>196.3800000000012</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>196.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.0650000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.3650000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>190.9800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.3800000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>47.33999999999972</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.20499999999973</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.42999999999972</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.69999999999999</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.99499999999972</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>96.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>90.06500000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>92.36500000000117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>90.98000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.38000000000116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2040,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2246,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2257,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2268,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2279,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2301,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2312,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2323,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2334,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2395,6 +2410,61 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
